--- a/biology/Botanique/Yoshisuke_Satake/Yoshisuke_Satake.xlsx
+++ b/biology/Botanique/Yoshisuke_Satake/Yoshisuke_Satake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yoshisuke Satake (1902-2000) est un botaniste japonais. Il a travaillé académiquement à l'« Institut botanique » de l'Université de Tokyo.
 </t>
@@ -511,12 +523,48 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1936 : Taxonomic study of Korean Boehmeria
-1931 : Systematic and anatomical studies on some Japanese plants: Selaginellaceae, with special reference to epidermal elements of leaves
-Livres
-1985 : Nihon Ne yasei shokubutsu: Sōhon. Ed. Heibonsha. 903 pp.
+1931 : Systematic and anatomical studies on some Japanese plants: Selaginellaceae, with special reference to epidermal elements of leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yoshisuke_Satake</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yoshisuke_Satake</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1985 : Nihon Ne yasei shokubutsu: Sōhon. Ed. Heibonsha. 903 pp.
 1963 : Nishi-Irian ki: Nyūginia Ne jinen to seikatsu. Ed. Hirokawa Shoten. 370 pp.
 1940 : À revision of the Japanese Eriocaulon. Ed. Tokyo Science Museum. 70 pp.
 1936 : takenoshin Nakai, masaji Profonde, masao Kitagawa, yoshisuke Satake. Plantae novae vel minus cognitae Ex Manshuriae. 108 pp.
@@ -524,39 +572,44 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Yoshisuke_Satake</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Yoshisuke_Satake</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Éponymie
-Genre
-(Arecaceae) Satakentia H.e.moore[1]
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Éponymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Genre
+(Arecaceae) Satakentia H.e.moore
 Espèces
-(Cyperaceae) Carex satakeana Koyama[2]
-(Juncaceae) Juncus satakei Kitag[3].
-(Scrophulariaceae) Lindernia satakei T.yamaz[4].</t>
+(Cyperaceae) Carex satakeana Koyama
+(Juncaceae) Juncus satakei Kitag.
+(Scrophulariaceae) Lindernia satakei T.yamaz.</t>
         </is>
       </c>
     </row>
